--- a/intro fig gdp.xlsx
+++ b/intro fig gdp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CHI24\code\ECO_LLM_VIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8E958E-4DF3-48B8-A51F-E319851F3BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C6C6F0-6268-431D-8469-B9239D9F5E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="2340" windowWidth="17460" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="1170" windowWidth="21020" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006 Q1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006 Q2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,6 +56,46 @@
   </si>
   <si>
     <t>2008 Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change in real gross domestic product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008 Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008 Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008 Q4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009 Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009 Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009 Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009 Q4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010 Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>civilian unemployment rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,6 +156,3035 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>change in real gross domestic product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2006 Q3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006 Q4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007 Q1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007 Q2 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007 Q3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007 Q4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008 Q1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008 Q2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008 Q3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008 Q4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009 Q1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009 Q2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009 Q3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009 Q4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010 Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FCB-4AB0-B223-CD6C9FDC4207}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1555520527"/>
+        <c:axId val="1579044575"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>civilian unemployment rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2006 Q3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006 Q4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007 Q1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007 Q2 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007 Q3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007 Q4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008 Q1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008 Q2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008 Q3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008 Q4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009 Q1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009 Q2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009 Q3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009 Q4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010 Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1FCB-4AB0-B223-CD6C9FDC4207}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1553830591"/>
+        <c:axId val="1579034495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1555520527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1579044575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="4"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1579044575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1555520527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1579034495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553830591"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1553830591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1579034495"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>change in real gross domestic product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2006 Q3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006 Q4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007 Q1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007 Q2 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007 Q3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007 Q4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008 Q1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008 Q2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008 Q3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008 Q4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009 Q1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009 Q2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009 Q3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009 Q4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010 Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F8A-44C8-A540-A171B8CCF03E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1837893935"/>
+        <c:axId val="1559951359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1837893935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1559951359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="4"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1559951359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1837893935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>civilian unemployment rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2006 Q3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006 Q4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007 Q1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007 Q2 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007 Q3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007 Q4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008 Q1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008 Q2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008 Q3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008 Q4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009 Q1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009 Q2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009 Q3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009 Q4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010 Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4AB-4219-BED2-01E52682CFC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1553830127"/>
+        <c:axId val="1838633871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1553830127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1838633871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="3"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1838633871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553830127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB34A6EA-ABE0-9D7F-BCB8-63AFC92E63BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>661866</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>37612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183174</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143119</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DBA287-685E-FDA7-D3EE-4B7C2DFA76CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>515328</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>471366</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30773</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65293F3C-11C9-4A51-BBEC-7F958F7FC166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,66 +3450,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P40" sqref="P39:P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1.8</v>
+      </c>
+      <c r="C2">
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>2.4</v>
+      </c>
+      <c r="C3">
+        <v>4.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1.6</v>
+      </c>
+      <c r="C5">
+        <v>4.62</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C6">
+        <v>4.67</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>0.75</v>
+      </c>
+      <c r="C7">
+        <v>4.8499999999999996</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>5.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-0.04</v>
+      </c>
+      <c r="C9">
+        <v>7.2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>-1.5</v>
+      </c>
+      <c r="C10">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>-2.1</v>
+      </c>
+      <c r="C11">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>-2.6</v>
+      </c>
+      <c r="C12">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>-1.2</v>
+      </c>
+      <c r="C13">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1.47</v>
+      </c>
+      <c r="C15">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2.7</v>
+      </c>
+      <c r="C16">
+        <v>8.9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/intro fig gdp.xlsx
+++ b/intro fig gdp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CHI24\code\ECO_LLM_VIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C6C6F0-6268-431D-8469-B9239D9F5E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679DD237-BC76-4853-BAAE-5910BA6D79A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1170" windowWidth="21020" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1390" yWindow="4550" windowWidth="18530" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,6 +647,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1579034495"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3452,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P40" sqref="P39:P40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
